--- a/data/financial_statements/socf/KEY.xlsx
+++ b/data/financial_statements/socf/KEY.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Net Income</t>
@@ -116,9 +236,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -171,12 +288,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -473,798 +587,801 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN32"/>
+  <dimension ref="A1:AO32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>-1523000000</v>
+      </c>
+      <c r="C2">
         <v>542000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>533000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>448000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>629000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>645000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>729000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>622000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>582000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>428000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>187000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>146000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>469000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>416000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>425000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>407000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>484000000</v>
-      </c>
-      <c r="R2">
-        <v>482000000</v>
       </c>
       <c r="S2">
         <v>482000000</v>
       </c>
       <c r="T2">
+        <v>482000000</v>
+      </c>
+      <c r="U2">
         <v>418000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>197000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>364000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>412000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>325000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>228000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>173000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>201000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>188000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>229000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>217000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>239000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>235000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>254000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>186000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>225000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>242000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>230000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>271000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>204000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>205000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3">
         <v>26000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>34000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>40000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>-48000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>59000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>4000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>17000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-1000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>26000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>32000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>54000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>58000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>62000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>63000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>58000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>92000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>95000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>92000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>103000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>106000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>103000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>98000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>100000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>21000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>169000000</v>
-      </c>
-      <c r="AA3">
-        <v>62000000</v>
       </c>
       <c r="AB3">
         <v>62000000</v>
       </c>
       <c r="AC3">
+        <v>62000000</v>
+      </c>
+      <c r="AD3">
         <v>71000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>60000000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>66000000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>50000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>61000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>76000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>57000000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>52000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>53000000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>75000000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>49000000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>44000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4">
         <v>93000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>52000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>229000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>45000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>-148000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-104000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>38000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>70000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>114000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>357000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>370000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>105000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>205000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>65000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>187000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>141000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>171000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>-26000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>114000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>254000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>10000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>161000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>235000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>186000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>27000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>38000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>161000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>56000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>10000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>-29000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>66000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>52000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>-23000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>-53000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>11000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>33000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>-190000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>337000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>98000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5">
         <v>270000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>-187000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1563000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>-958000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>263000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>683000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-629000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>122000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>363000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>127000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>-597000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>185000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>440000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>-842000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>355000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>432000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>-150000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>241000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>-549000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>257000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>377000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>-275000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>-220000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>615000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>-645000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>263000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>-45000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>299000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>-56000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>819000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>-904000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>52000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>-309000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>-42000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>213000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>89000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>-282000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>50000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>183000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6">
         <v>-259000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>39000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-147000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>201000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>-51000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>-40000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>-76000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>-2000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>-88000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>150000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>245000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>-77000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>41000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>-25000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>-130000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>109000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>-125000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>-64000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>67000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>-53000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>298000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>-160000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>-54000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>59000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>39000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>-200000000</v>
-      </c>
-      <c r="AB6">
-        <v>23000000</v>
       </c>
       <c r="AC6">
         <v>23000000</v>
       </c>
       <c r="AD6">
+        <v>23000000</v>
+      </c>
+      <c r="AE6">
         <v>-137000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>115000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>-39000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>215000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>-75000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>-50000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>-102000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>68000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>-214000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>109000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>-96000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7">
         <v>-29000000</v>
-      </c>
-      <c r="C7">
-        <v>-27000000</v>
       </c>
       <c r="D7">
         <v>-27000000</v>
       </c>
       <c r="E7">
+        <v>-27000000</v>
+      </c>
+      <c r="F7">
         <v>-31000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>-28000000</v>
-      </c>
-      <c r="G7">
-        <v>-27000000</v>
       </c>
       <c r="H7">
         <v>-27000000</v>
       </c>
       <c r="I7">
+        <v>-27000000</v>
+      </c>
+      <c r="J7">
         <v>-33000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-28000000</v>
-      </c>
-      <c r="K7">
-        <v>-29000000</v>
       </c>
       <c r="L7">
         <v>-29000000</v>
       </c>
       <c r="M7">
+        <v>-29000000</v>
+      </c>
+      <c r="N7">
         <v>-35000000</v>
-      </c>
-      <c r="N7">
-        <v>-29000000</v>
       </c>
       <c r="O7">
         <v>-29000000</v>
       </c>
       <c r="P7">
+        <v>-29000000</v>
+      </c>
+      <c r="Q7">
         <v>-28000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>-33000000</v>
-      </c>
-      <c r="R7">
-        <v>-28000000</v>
       </c>
       <c r="S7">
         <v>-28000000</v>
@@ -1273,34 +1390,34 @@
         <v>-28000000</v>
       </c>
       <c r="U7">
+        <v>-28000000</v>
+      </c>
+      <c r="V7">
         <v>-34000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>-29000000</v>
-      </c>
-      <c r="W7">
-        <v>-28000000</v>
       </c>
       <c r="X7">
         <v>-28000000</v>
       </c>
       <c r="Y7">
+        <v>-28000000</v>
+      </c>
+      <c r="Z7">
         <v>-35000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>-27000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>-24000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>-25000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>-33000000</v>
-      </c>
-      <c r="AD7">
-        <v>-25000000</v>
       </c>
       <c r="AE7">
         <v>-25000000</v>
@@ -1309,1235 +1426,1235 @@
         <v>-25000000</v>
       </c>
       <c r="AG7">
+        <v>-25000000</v>
+      </c>
+      <c r="AH7">
         <v>-33000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>-25000000</v>
-      </c>
-      <c r="AI7">
-        <v>-24000000</v>
       </c>
       <c r="AJ7">
         <v>-24000000</v>
       </c>
       <c r="AK7">
+        <v>-24000000</v>
+      </c>
+      <c r="AL7">
         <v>-32000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>-24000000</v>
-      </c>
-      <c r="AM7">
-        <v>-25000000</v>
       </c>
       <c r="AN7">
         <v>-25000000</v>
       </c>
+      <c r="AO7">
+        <v>-25000000</v>
+      </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
         <v>1438000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>-522000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>-1225000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>152000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>175000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>-792000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>-150000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>208000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>-193000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>-546000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>-362000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>288000000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>48000000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>513000000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>-289000000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>487000000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>-59000000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>-78000000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>-336000000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>9000000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>545000000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>-392000000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>-763000000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>-245000000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>400000000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>11000000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>9000000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>237000000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>121000000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>-24000000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>-485000000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>254000000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>372000000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>-6000000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>-236000000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>238000000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>307000000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>-30000000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>-178000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>2081000000</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="C9">
-        <v>-78000000</v>
+        <v>2041000000</v>
       </c>
       <c r="D9">
-        <v>881000000</v>
+        <v>48000000</v>
       </c>
       <c r="E9">
-        <v>-10000000</v>
+        <v>-578000000</v>
       </c>
       <c r="F9">
+        <v>636000000</v>
+      </c>
+      <c r="G9">
         <v>915000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>453000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>-205000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>946000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>622000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>278000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>-173000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>993000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>1183000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>170000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>560000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>1712000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>386000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>619000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>-211000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>736000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>1668000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>-184000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>-405000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>829000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>136000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>351000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>373000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>882000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>190000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>1161000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>-1102000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>855000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>202000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>107000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>156000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>679000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>-57000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>694000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>231000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10">
         <v>-17000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-20000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-11000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-31000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>1000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-20000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-12000000</v>
-      </c>
-      <c r="I10">
-        <v>-18000000</v>
       </c>
       <c r="J10">
         <v>-18000000</v>
       </c>
       <c r="K10">
+        <v>-18000000</v>
+      </c>
+      <c r="L10">
         <v>-15000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>-12000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>-26000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>-4000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>-29000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>-8000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>-25000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>-37000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>-17000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>-18000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>-56000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>-32000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>-22000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>-2000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>-66000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>-49000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>-22000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>-8000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>-35000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>-22000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>-14000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>-3000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>-44000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>-23000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>-19000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>-10000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>-40000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>-26000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>-22000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>-4000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
         <v>-12000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
         <v>-58000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-20000000</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>-9000000</v>
       </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
         <v>-185000000</v>
       </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
       <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
         <v>5000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>119000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>-70000000</v>
       </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
       <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
         <v>-74000000</v>
       </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
       <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
         <v>-481000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>-11000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>-103000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>-216000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>375000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>573000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13">
         <v>-2440000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>1425000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>7129000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>8598000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>852000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>-5084000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>818000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>-2046000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>-112000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>-9963000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>-2801000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>2079000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>-908000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>69000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>50000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>-290000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>374000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>-1002000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>2803000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>-454000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>-1471000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>3000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>250000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>441000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>3383000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>-1163000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>-2729000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>-743000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>1258000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>156000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>891000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>-1927000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>871000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>-254000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>2668000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>-2055000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>48000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>-502000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>859000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14">
         <v>81000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>-1756000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>-414000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-4411000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>-5628000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>195000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>-6450000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>35000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>-2573000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>-2037000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>1920000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>874000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>-315000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>72000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>-878000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>-421000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>-632000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>352000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>-306000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>-860000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>-619000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>-49000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>1873000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>-1357000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>-1079000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>57000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>11000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>47000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>55000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>-1193000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>353000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>-1114000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>336000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>-198000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>69000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>143000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>632000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>-955000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>-1215000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>-3798000000</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="C15">
-        <v>-5730000000</v>
+        <v>21000000</v>
       </c>
       <c r="D15">
-        <v>-4730000000</v>
+        <v>25000000</v>
       </c>
       <c r="E15">
-        <v>-3135000000</v>
+        <v>14000000</v>
       </c>
       <c r="F15">
+        <v>16000000</v>
+      </c>
+      <c r="G15">
         <v>-1180000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>325000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>123000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>1851000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>2904000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>-3007000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>-8829000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>-1873000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>-1262000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>-1871000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>-703000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>-363000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>-1134000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>-160000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>-1730000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>34000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>21000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>-513000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>-198000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>-1031000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>-36000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>-1717000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>-611000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>145000000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>-1893000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>-366000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>-659000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>-1215000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>-668000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>-177000000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>-997000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>-731000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>-717000000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>-543000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>204000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>-6174000000</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="C16">
-        <v>-6151000000</v>
+        <v>-6134000000</v>
       </c>
       <c r="D16">
-        <v>1974000000</v>
+        <v>-6277000000</v>
       </c>
       <c r="E16">
-        <v>1001000000</v>
+        <v>3433000000</v>
       </c>
       <c r="F16">
+        <v>355000000</v>
+      </c>
+      <c r="G16">
         <v>-5955000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>-4584000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>-5530000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>-178000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>201000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>-15022000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>-9722000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>1054000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>-2489000000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>-1944000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>-1539000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>-1099000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>-1424000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>-708000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>749000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>-1406000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>-2101000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>-655000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>1923000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>-2013000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>1738000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>-2845000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>-3337000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>-586000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>-602000000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>-1417000000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>582000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>-4311000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>413000000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>-648000000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>1730000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>-2899000000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>312000000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>-1449000000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>-156000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
         <v>4761000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>9230000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>1072000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>-1279000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>61000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>595000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>-958000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>1054000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>-1953000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>-5064000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>6949000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>-1733000000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>90000000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>-67000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>434000000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>-1308000000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>-344000000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>696000000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>234000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>-680000000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>158000000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>2262000000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>-935000000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>873000000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>-1859000000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>649000000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>562000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>-67000000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>-25000000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>1585000000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>998000000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>103000000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>-1049000000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>367000000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>72000000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>1511000000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>-525000000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>-1386000000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>1410000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
         <v>5000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>6000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>-708000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>-292000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>-123000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>-16000000</v>
-      </c>
-      <c r="J18">
-        <v>1000000</v>
       </c>
       <c r="K18">
         <v>1000000</v>
       </c>
       <c r="L18">
+        <v>1000000</v>
+      </c>
+      <c r="M18">
         <v>-112000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>-230000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>-246000000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>-177000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>-164000000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>-277000000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>-536000000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>-119000000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>-146000000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>-202000000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>-266000000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>-86000000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>-85000000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>-40000000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>-71000000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>2000000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>1000000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>3000000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>-121000000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>-120000000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>-188000000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>-125000000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>-115000000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>-102000000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>-115000000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>-95000000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>-190000000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>-106000000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>-57000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19">
         <v>590000000</v>
       </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
         <v>435000000</v>
       </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
       <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
         <v>412000000</v>
       </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
       <c r="V19">
         <v>0</v>
       </c>
@@ -2545,39 +2662,39 @@
         <v>0</v>
       </c>
       <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
         <v>-350000000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>490000000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>519000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>-209000000</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C20">
         <v>-209000000</v>
       </c>
       <c r="D20">
+        <v>-209000000</v>
+      </c>
+      <c r="E20">
         <v>-208000000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>-209000000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>-201000000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>-206000000</v>
-      </c>
-      <c r="H20">
-        <v>-207000000</v>
       </c>
       <c r="I20">
         <v>-207000000</v>
@@ -2589,79 +2706,79 @@
         <v>-207000000</v>
       </c>
       <c r="L20">
+        <v>-207000000</v>
+      </c>
+      <c r="M20">
         <v>-208000000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>-209000000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>-212000000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>-191000000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>-192000000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>-198000000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>-190000000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>-141000000</v>
-      </c>
-      <c r="T20">
-        <v>-127000000</v>
       </c>
       <c r="U20">
         <v>-127000000</v>
       </c>
       <c r="V20">
+        <v>-127000000</v>
+      </c>
+      <c r="W20">
         <v>-117000000</v>
-      </c>
-      <c r="W20">
-        <v>-118000000</v>
       </c>
       <c r="X20">
         <v>-118000000</v>
       </c>
       <c r="Y20">
+        <v>-118000000</v>
+      </c>
+      <c r="Z20">
         <v>-111000000</v>
-      </c>
-      <c r="Z20">
-        <v>-78000000</v>
       </c>
       <c r="AA20">
         <v>-78000000</v>
       </c>
       <c r="AB20">
-        <v>-68000000</v>
+        <v>-78000000</v>
       </c>
       <c r="AC20">
         <v>-68000000</v>
       </c>
       <c r="AD20">
-        <v>-69000000</v>
+        <v>-68000000</v>
       </c>
       <c r="AE20">
         <v>-69000000</v>
       </c>
       <c r="AF20">
+        <v>-69000000</v>
+      </c>
+      <c r="AG20">
         <v>-61000000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>-62000000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>-61000000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>-62000000</v>
-      </c>
-      <c r="AJ20">
-        <v>-55000000</v>
       </c>
       <c r="AK20">
         <v>-55000000</v>
@@ -2673,391 +2790,391 @@
         <v>-55000000</v>
       </c>
       <c r="AN20">
+        <v>-55000000</v>
+      </c>
+      <c r="AO20">
         <v>-52000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21">
         <v>-1010000000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>-2798000000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>-3953000000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>641000000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>5859000000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>3888000000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>6870000000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>-1464000000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>1233000000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>20208000000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>3399000000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>221000000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>1703000000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>1770000000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>834000000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>1529000000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>1231000000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>-206000000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>-527000000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>1788000000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>619000000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>-1167000000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>-158000000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>-100000000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>-132000000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>1943000000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>2336000000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>-27000000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>404000000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>-953000000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>-376000000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>3542000000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>657000000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>533000000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>-1996000000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>728000000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>567000000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>2377000000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>-1339000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22">
         <v>4132000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>6223000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>-3084000000</v>
       </c>
-      <c r="E22">
-        <v>-841000000</v>
-      </c>
       <c r="F22">
+        <v>-1426000000</v>
+      </c>
+      <c r="G22">
         <v>5011000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>3985000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>5582000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>-633000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>-926000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>14938000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>10028000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>-1951000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>1335000000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>1770000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>912000000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>-254000000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>573000000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>230000000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>-566000000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>779000000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>394000000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>891000000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>-1646000000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>1112000000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>-1621000000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>2516000000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>2831000000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>-159000000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>189000000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>443000000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>373000000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>3458000000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>-568000000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>736000000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>-2094000000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>2089000000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>-203000000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>830000000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>-38000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23">
         <v>39000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>-6000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>-229000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>150000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>-29000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>-146000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>-153000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>135000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>-103000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>194000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>133000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>96000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>29000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>-4000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>-67000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>359000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>-465000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>141000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>-28000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>109000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>-39000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>52000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>-128000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>-72000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>253000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>22000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>-133000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>137000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>-223000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>187000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>-147000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>2000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>47000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>195000000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>-208000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>-131000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>52000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>75000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>37000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
         <v>913000000</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
       <c r="F24">
         <v>0</v>
       </c>
@@ -3065,11 +3182,11 @@
         <v>0</v>
       </c>
       <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
         <v>1091000000</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
       <c r="J24">
         <v>0</v>
       </c>
@@ -3077,11 +3194,11 @@
         <v>0</v>
       </c>
       <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
         <v>732000000</v>
       </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
       <c r="N24">
         <v>0</v>
       </c>
@@ -3089,11 +3206,11 @@
         <v>0</v>
       </c>
       <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>678000000</v>
       </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
       <c r="R24">
         <v>0</v>
       </c>
@@ -3101,11 +3218,11 @@
         <v>0</v>
       </c>
       <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
         <v>671000000</v>
       </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
       <c r="V24">
         <v>0</v>
       </c>
@@ -3113,11 +3230,11 @@
         <v>0</v>
       </c>
       <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
         <v>677000000</v>
       </c>
-      <c r="Y24">
-        <v>0</v>
-      </c>
       <c r="Z24">
         <v>0</v>
       </c>
@@ -3125,11 +3242,11 @@
         <v>0</v>
       </c>
       <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
         <v>607000000</v>
       </c>
-      <c r="AC24">
-        <v>0</v>
-      </c>
       <c r="AD24">
         <v>0</v>
       </c>
@@ -3137,11 +3254,11 @@
         <v>0</v>
       </c>
       <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
         <v>653000000</v>
       </c>
-      <c r="AG24">
-        <v>0</v>
-      </c>
       <c r="AH24">
         <v>0</v>
       </c>
@@ -3149,11 +3266,11 @@
         <v>0</v>
       </c>
       <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
         <v>617000000</v>
       </c>
-      <c r="AK24">
-        <v>0</v>
-      </c>
       <c r="AL24">
         <v>0</v>
       </c>
@@ -3161,146 +3278,146 @@
         <v>0</v>
       </c>
       <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
         <v>584000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25">
         <v>39000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>-6000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>684000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>150000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>-29000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>-146000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>938000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>135000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>-103000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>194000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>865000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>96000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>29000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>-4000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>611000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>359000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>-465000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>141000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>643000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>109000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>-39000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>52000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>549000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>-72000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>253000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>22000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>474000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>137000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>-223000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>187000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>506000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>2000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>47000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>195000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>409000000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>-131000000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>52000000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>75000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>621000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>30000000</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="C26">
         <v>30000000</v>
       </c>
       <c r="D26">
+        <v>30000000</v>
+      </c>
+      <c r="E26">
         <v>29000000</v>
-      </c>
-      <c r="E26">
-        <v>26000000</v>
       </c>
       <c r="F26">
         <v>26000000</v>
@@ -3315,123 +3432,126 @@
         <v>26000000</v>
       </c>
       <c r="J26">
+        <v>26000000</v>
+      </c>
+      <c r="K26">
         <v>24000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>26000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>25000000</v>
-      </c>
-      <c r="M26">
-        <v>24000000</v>
       </c>
       <c r="N26">
         <v>24000000</v>
       </c>
       <c r="O26">
+        <v>24000000</v>
+      </c>
+      <c r="P26">
         <v>23000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>25000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>21000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>25000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>26000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>27000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>26000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>23000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>24000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>27000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>33000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>30000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>17000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>19000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>11000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>14000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>20000000</v>
-      </c>
-      <c r="AF26">
-        <v>13000000</v>
       </c>
       <c r="AG26">
         <v>13000000</v>
       </c>
       <c r="AH26">
-        <v>10000000</v>
+        <v>13000000</v>
       </c>
       <c r="AI26">
         <v>10000000</v>
       </c>
       <c r="AJ26">
+        <v>10000000</v>
+      </c>
+      <c r="AK26">
         <v>11000000</v>
-      </c>
-      <c r="AK26">
-        <v>8000000</v>
       </c>
       <c r="AL26">
         <v>8000000</v>
       </c>
       <c r="AM26">
+        <v>8000000</v>
+      </c>
+      <c r="AN26">
         <v>9000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>10000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
-        <v>-209000000</v>
+        <v>626000000</v>
       </c>
       <c r="C27">
         <v>-209000000</v>
       </c>
       <c r="D27">
+        <v>-209000000</v>
+      </c>
+      <c r="E27">
         <v>-208000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>-209000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>-201000000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>-206000000</v>
-      </c>
-      <c r="H27">
-        <v>-207000000</v>
       </c>
       <c r="I27">
         <v>-207000000</v>
@@ -3443,79 +3563,79 @@
         <v>-207000000</v>
       </c>
       <c r="L27">
+        <v>-207000000</v>
+      </c>
+      <c r="M27">
         <v>-208000000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>-209000000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>-212000000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>-191000000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>-192000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>-198000000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>-190000000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>-141000000</v>
-      </c>
-      <c r="T27">
-        <v>-127000000</v>
       </c>
       <c r="U27">
         <v>-127000000</v>
       </c>
       <c r="V27">
+        <v>-127000000</v>
+      </c>
+      <c r="W27">
         <v>-117000000</v>
-      </c>
-      <c r="W27">
-        <v>-118000000</v>
       </c>
       <c r="X27">
         <v>-118000000</v>
       </c>
       <c r="Y27">
+        <v>-118000000</v>
+      </c>
+      <c r="Z27">
         <v>-111000000</v>
-      </c>
-      <c r="Z27">
-        <v>-78000000</v>
       </c>
       <c r="AA27">
         <v>-78000000</v>
       </c>
       <c r="AB27">
-        <v>-68000000</v>
+        <v>-78000000</v>
       </c>
       <c r="AC27">
         <v>-68000000</v>
       </c>
       <c r="AD27">
-        <v>-69000000</v>
+        <v>-68000000</v>
       </c>
       <c r="AE27">
         <v>-69000000</v>
       </c>
       <c r="AF27">
+        <v>-69000000</v>
+      </c>
+      <c r="AG27">
         <v>-61000000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>-62000000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>-61000000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>-62000000</v>
-      </c>
-      <c r="AJ27">
-        <v>-55000000</v>
       </c>
       <c r="AK27">
         <v>-55000000</v>
@@ -3527,616 +3647,622 @@
         <v>-55000000</v>
       </c>
       <c r="AN27">
+        <v>-55000000</v>
+      </c>
+      <c r="AO27">
         <v>-52000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>1.4717</v>
+      </c>
+      <c r="C28">
         <v>1.3766</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>1.1763</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>0.3988</v>
       </c>
-      <c r="E28">
-        <v>0.039</v>
-      </c>
       <c r="F28">
+        <v>0.1432</v>
+      </c>
+      <c r="G28">
         <v>-0.3484</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>-0.4019</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>-0.1862</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>0.06809999999999999</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>-0.1829</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>-0.0013</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>1.5007</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>0.5800999999999999</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>0.5399</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>0.5754</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>0.6116</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>0.6268</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>0.4999</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>0.4585</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>0.5321</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>0.3875</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>0.4812</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>0.4491</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>0.4384</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>0.476</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>0.6468</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>0.362</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>0.4472</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>0.551</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>0.653</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>0.4502</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>0.3361</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>0.1819</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>0.278</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>0.2825</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>0.2811</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>0.058</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>0.1036</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>0.1749</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>0.3742</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29">
         <v>-18000000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>-175000000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>1389000000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>-788000000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>184000000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>616000000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>-732000000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>87000000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>247000000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>248000000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>-381000000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>73000000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>452000000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>-896000000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>197000000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>508000000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>-303000000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>149000000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>-510000000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>170000000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>646000000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>-463000000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>-302000000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>639000000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>-633000000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>39000000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>-47000000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>289000000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>-218000000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>909000000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>-968000000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>234000000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>-409000000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>-116000000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>87000000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>125000000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>-520000000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>134000000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>62000000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30">
         <v>-2359000000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>-331000000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>6715000000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>4187000000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>-4776000000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>-4889000000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>-5632000000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>-2011000000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>-2685000000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>-12000000000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>-881000000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>2953000000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>-1223000000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>141000000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>-828000000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>-711000000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>-258000000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>-650000000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>2497000000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>-1314000000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>-2090000000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>-46000000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>2123000000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>-916000000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>2304000000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>-1106000000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>-2718000000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>-696000000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>1313000000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>-1037000000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>1244000000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>-3041000000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>1207000000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>-452000000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>2737000000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>-1912000000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>680000000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>-1457000000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>-356000000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31">
         <v>590000000</v>
       </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
       <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
         <v>5000000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>6000000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>-708000000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>-292000000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>-123000000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>-16000000</v>
-      </c>
-      <c r="J31">
-        <v>1000000</v>
       </c>
       <c r="K31">
         <v>1000000</v>
       </c>
       <c r="L31">
+        <v>1000000</v>
+      </c>
+      <c r="M31">
         <v>-112000000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>-230000000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>-246000000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>258000000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>-164000000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>-277000000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>-124000000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>-119000000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>-146000000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>-202000000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>-266000000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>-86000000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>-435000000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>450000000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>448000000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>2000000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>1000000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>3000000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>-121000000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>-120000000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>-188000000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>-125000000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>-115000000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>-102000000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>-115000000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>-95000000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>-190000000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>-106000000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>-57000000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32">
         <v>590000000</v>
       </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
       <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
         <v>5000000</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>6000000</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>-708000000</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>-292000000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>-123000000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>-16000000</v>
-      </c>
-      <c r="J32">
-        <v>1000000</v>
       </c>
       <c r="K32">
         <v>1000000</v>
       </c>
       <c r="L32">
+        <v>1000000</v>
+      </c>
+      <c r="M32">
         <v>-112000000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>-230000000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>-246000000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>258000000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>-164000000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>-277000000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>-124000000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>-119000000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>-146000000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>-202000000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>-266000000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>-86000000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>-435000000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>450000000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>448000000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>2000000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>1000000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>3000000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>-121000000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>-120000000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>-188000000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>-125000000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>-115000000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>-102000000</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>-115000000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>-95000000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>-190000000</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>-106000000</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>-57000000</v>
       </c>
     </row>
